--- a/bank statement generator/bank_statements/statement_104.xlsx
+++ b/bank statement generator/bank_statements/statement_104.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.09.2024</t>
+          <t>KONTOSTAND AM 18.01.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,88 +759,88 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>11.09.</t>
+          <t>19.01.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>12.09.</t>
+          <t>20.01.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Klötze</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 32937694</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>19,66-</t>
+          <t>85,94-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>13.09.</t>
+          <t>21.01.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>14.09.</t>
+          <t>22.01.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-25252211</t>
+          <t>BEITRAG Allianz SE K-49287274</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>55,03-</t>
+          <t>53,85-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>16.09.</t>
+          <t>23.01.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>17.09.</t>
+          <t>24.01.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Donaueschingen</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>26,15-</t>
+          <t>25,02-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>18.09.</t>
+          <t>27.01.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>19.09.</t>
+          <t>28.01.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL NEUSUO</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>92,45-</t>
+          <t>45,35-</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 21.09.2024</t>
+          <t>KONTOSTAND AM 31.01.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>193,29-</t>
+          <t>210,16-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 27.09.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 05.02.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
